--- a/Results/Calculation/lda2vec-partial.xlsx
+++ b/Results/Calculation/lda2vec-partial.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="G2">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,10 +464,10 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>17</v>
@@ -493,16 +493,16 @@
         <v>131</v>
       </c>
       <c r="C4">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>23</v>
       </c>
       <c r="F4">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G4">
         <v>0.85</v>
@@ -511,7 +511,7 @@
         <v>0.88</v>
       </c>
       <c r="I4">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>319</v>
@@ -528,16 +528,16 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>0.82</v>
       </c>
       <c r="G5">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="H5">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I5">
         <v>0.84</v>
